--- a/input.xlsx
+++ b/input.xlsx
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\wataru\jupyter\dlc2_edit_labels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFEF20A4-A8A1-408E-B8A1-7366099EB643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA6D5734-F457-44AC-A5DB-E00236DC1424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-43752" yWindow="372" windowWidth="21456" windowHeight="19944" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-37170" yWindow="3120" windowWidth="24180" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
   <si>
     <t>inferred_path</t>
   </si>
@@ -92,6 +103,18 @@
   </si>
   <si>
     <t>comments</t>
+  </si>
+  <si>
+    <t>W:\wataru\dlc_data\homecage_test03-wi-2022-06-08\labeled-data\rpicam-01_1806_20210722_212134</t>
+  </si>
+  <si>
+    <t>add spine</t>
+  </si>
+  <si>
+    <t>spine1,spine2,tail1,tail2</t>
+  </si>
+  <si>
+    <t>W:\wataru\dlc_data\homecage_test04-wi-2022-06-08\labeled-data\rpicam-01_1806_20210722_212134</t>
   </si>
 </sst>
 </file>
@@ -941,29 +964,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.21875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="25.21875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="29.21875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1796875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.81640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="25.1796875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="29.1796875" style="2" customWidth="1"/>
     <col min="7" max="7" width="20" style="2" customWidth="1"/>
-    <col min="8" max="8" width="22.44140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="23.44140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.21875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="3"/>
-    <col min="12" max="16384" width="8.88671875" style="2"/>
+    <col min="8" max="8" width="22.453125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="23.453125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.1796875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="8.90625" style="3"/>
+    <col min="12" max="16384" width="8.90625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>21</v>
       </c>
@@ -992,7 +1016,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -1008,7 +1032,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1033,7 +1057,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1049,7 +1073,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -1065,7 +1089,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -1087,7 +1111,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1097,6 +1121,9 @@
       <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="D7" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="G7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1105,6 +1132,53 @@
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/input.xlsx
+++ b/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\wataru\jupyter\dlc2_edit_labels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA6D5734-F457-44AC-A5DB-E00236DC1424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C53EB4-7D50-402E-AA20-3034D21B401C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37170" yWindow="3120" windowWidth="24180" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28070" yWindow="2280" windowWidth="26300" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>inferred_path</t>
   </si>
@@ -54,67 +54,37 @@
     <t>labeled_h5</t>
   </si>
   <si>
-    <t>W:\wataru\homecage_videos\black_mice\13_pair\analyzed_videos</t>
-  </si>
-  <si>
-    <t>rpicam-01_1803_20210722_182134.mp4</t>
-  </si>
-  <si>
-    <t>rpicam-01_1803_20210722_182134DLC_dlcrnetms5_homecage_test01Jun3shuffle1_50000_el.h5</t>
-  </si>
-  <si>
-    <t>rpicam-01_1806_20210722_212134.mp4</t>
-  </si>
-  <si>
-    <t>rpicam-01_1806_20210722_212134DLC_dlcrnetms5_homecage_test01Jun3shuffle1_50000_el.h5</t>
-  </si>
-  <si>
-    <t>W:\wataru\dlc_data\homecage_test01-wi-2022-06-03\training-datasets\iteration-0\UnaugmentedDataSet_homecage_test01Jun3</t>
-  </si>
-  <si>
     <t>Documentation_data-homecage_test01_95shuffle1.pickle</t>
   </si>
   <si>
-    <t>CollectedData_wi.h5</t>
-  </si>
-  <si>
-    <t>rpicam-01_1815_20210723_062136.mp4</t>
-  </si>
-  <si>
-    <t>rpicam-01_1815_20210723_062136DLC_dlcrnetms5_homecage_test01Jun3shuffle1_50000_el.h5</t>
-  </si>
-  <si>
-    <t>rpicam-01_1819_20210723_102136.mp4</t>
-  </si>
-  <si>
-    <t>rpicam-01_1819_20210723_102136DLC_dlcrnetms5_homecage_test01Jun3shuffle1_50000_el.h5</t>
-  </si>
-  <si>
-    <t>W:\wataru\dlc_data\homecage_test01-wi-2022-06-03\labeled-data\rpicam-01_1806_20210722_212134</t>
-  </si>
-  <si>
-    <t>initial_labeling</t>
-  </si>
-  <si>
     <t>stage</t>
   </si>
   <si>
-    <t>W:\wataru\dlc_data\homecage_test02-wi-2022-06-07\labeled-data\rpicam-01_1806_20210722_212134</t>
-  </si>
-  <si>
     <t>comments</t>
   </si>
   <si>
-    <t>W:\wataru\dlc_data\homecage_test03-wi-2022-06-08\labeled-data\rpicam-01_1806_20210722_212134</t>
-  </si>
-  <si>
-    <t>add spine</t>
-  </si>
-  <si>
-    <t>spine1,spine2,tail1,tail2</t>
-  </si>
-  <si>
-    <t>W:\wataru\dlc_data\homecage_test04-wi-2022-06-08\labeled-data\rpicam-01_1806_20210722_212134</t>
+    <t>Refining Lables</t>
+  </si>
+  <si>
+    <t>W:\dalton\dlc_data\homecage_test01-DJ-2022-06-07\training-datasets\iteration-0\UnaugmentedDataSet_homecage_test01Jun7</t>
+  </si>
+  <si>
+    <t>CollectedData_DJ.h5</t>
+  </si>
+  <si>
+    <t>W:\dalton\homecage_videos\black_mice\13_pair</t>
+  </si>
+  <si>
+    <t>rpicam-01_1728_20210719_182601.mp4_undistorted.mp4</t>
+  </si>
+  <si>
+    <t>rpicam-01_1728_20210719_182601.mp4_undistortedDLC_dlcrnetms5_homecage_test01Jun7shuffle1_200000_el.h5</t>
+  </si>
+  <si>
+    <t>rpicam-01_1729_20210719_192601.mp4_undistorted.mp4</t>
+  </si>
+  <si>
+    <t>rpicam-01_1729_20210719_192601.mp4_undistortedDLC_dlcrnetms5_homecage_test01Jun7shuffle1_200000_el.h5</t>
   </si>
 </sst>
 </file>
@@ -257,7 +227,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -435,6 +405,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -598,7 +574,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -608,6 +584,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -964,11 +943,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J18" sqref="J18"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -987,14 +966,14 @@
     <col min="12" max="16384" width="8.90625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -1003,181 +982,75 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>0</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="G2" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>1</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" ht="87" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" ht="87" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" ht="87" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" ht="87" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
